--- a/data/output/FV2410_FV2404/UTILMD/55113.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55113.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7242" uniqueCount="500">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7263" uniqueCount="500">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1655,6 +1655,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U311" totalsRowShown="0">
+  <autoFilter ref="A1:U311"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1944,7 +1974,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U311"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -17236,5 +17269,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/55113.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55113.xlsx
@@ -2998,7 +2998,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -3360,7 +3360,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -3708,7 +3708,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -4016,7 +4016,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -4590,7 +4590,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -4898,7 +4898,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -5098,7 +5098,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -5314,7 +5314,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -5532,7 +5532,7 @@
         <v>463</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -5694,7 +5694,7 @@
         <v>464</v>
       </c>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -5898,7 +5898,7 @@
         <v>466</v>
       </c>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -6102,7 +6102,7 @@
         <v>468</v>
       </c>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -6306,7 +6306,7 @@
         <v>470</v>
       </c>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -6510,7 +6510,7 @@
         <v>472</v>
       </c>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -6714,7 +6714,7 @@
         <v>473</v>
       </c>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -6916,7 +6916,7 @@
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -7114,7 +7114,7 @@
         <v>475</v>
       </c>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -7262,7 +7262,7 @@
       </c>
       <c r="K85" s="2"/>
       <c r="L85" s="4"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -7420,7 +7420,7 @@
       </c>
       <c r="K88" s="2"/>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -7566,7 +7566,7 @@
       </c>
       <c r="K91" s="2"/>
       <c r="L91" s="4"/>
-      <c r="M91" s="2" t="s">
+      <c r="M91" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N91" s="2" t="s">
@@ -7888,7 +7888,7 @@
         <v>476</v>
       </c>
       <c r="L97" s="4"/>
-      <c r="M97" s="2" t="s">
+      <c r="M97" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N97" s="2" t="s">
@@ -8036,7 +8036,7 @@
       </c>
       <c r="K100" s="2"/>
       <c r="L100" s="4"/>
-      <c r="M100" s="2" t="s">
+      <c r="M100" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N100" s="2" t="s">
@@ -8194,7 +8194,7 @@
       </c>
       <c r="K103" s="2"/>
       <c r="L103" s="4"/>
-      <c r="M103" s="2" t="s">
+      <c r="M103" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N103" s="2" t="s">
@@ -8450,7 +8450,7 @@
         <v>477</v>
       </c>
       <c r="L108" s="4"/>
-      <c r="M108" s="2" t="s">
+      <c r="M108" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N108" s="2" t="s">
@@ -8600,7 +8600,7 @@
         <v>478</v>
       </c>
       <c r="L111" s="4"/>
-      <c r="M111" s="2" t="s">
+      <c r="M111" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N111" s="2" t="s">
@@ -8764,7 +8764,7 @@
       </c>
       <c r="K114" s="2"/>
       <c r="L114" s="4"/>
-      <c r="M114" s="2" t="s">
+      <c r="M114" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N114" s="2" t="s">
@@ -8922,7 +8922,7 @@
       </c>
       <c r="K117" s="2"/>
       <c r="L117" s="4"/>
-      <c r="M117" s="2" t="s">
+      <c r="M117" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N117" s="2" t="s">
@@ -9356,7 +9356,7 @@
         <v>477</v>
       </c>
       <c r="L125" s="4"/>
-      <c r="M125" s="2" t="s">
+      <c r="M125" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N125" s="2" t="s">
@@ -9766,7 +9766,7 @@
       </c>
       <c r="K133" s="2"/>
       <c r="L133" s="4"/>
-      <c r="M133" s="2" t="s">
+      <c r="M133" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N133" s="2" t="s">
@@ -10068,7 +10068,7 @@
         <v>480</v>
       </c>
       <c r="L139" s="4"/>
-      <c r="M139" s="2" t="s">
+      <c r="M139" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N139" s="2" t="s">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="K142" s="2"/>
       <c r="L142" s="4"/>
-      <c r="M142" s="2" t="s">
+      <c r="M142" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N142" s="2" t="s">
@@ -10376,7 +10376,7 @@
         <v>481</v>
       </c>
       <c r="L145" s="4"/>
-      <c r="M145" s="2" t="s">
+      <c r="M145" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N145" s="2" t="s">
@@ -10636,7 +10636,7 @@
       </c>
       <c r="K150" s="2"/>
       <c r="L150" s="4"/>
-      <c r="M150" s="2" t="s">
+      <c r="M150" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N150" s="2" t="s">
@@ -10782,7 +10782,7 @@
       </c>
       <c r="K153" s="2"/>
       <c r="L153" s="4"/>
-      <c r="M153" s="2" t="s">
+      <c r="M153" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N153" s="2" t="s">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="K156" s="2"/>
       <c r="L156" s="4"/>
-      <c r="M156" s="2" t="s">
+      <c r="M156" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N156" s="2" t="s">
@@ -11192,7 +11192,7 @@
         <v>483</v>
       </c>
       <c r="L161" s="4"/>
-      <c r="M161" s="2" t="s">
+      <c r="M161" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N161" s="2" t="s">
@@ -11340,7 +11340,7 @@
       </c>
       <c r="K164" s="2"/>
       <c r="L164" s="4"/>
-      <c r="M164" s="2" t="s">
+      <c r="M164" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N164" s="2" t="s">
@@ -11504,7 +11504,7 @@
         <v>484</v>
       </c>
       <c r="L167" s="4"/>
-      <c r="M167" s="2" t="s">
+      <c r="M167" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N167" s="2" t="s">
@@ -11670,7 +11670,7 @@
         <v>485</v>
       </c>
       <c r="L170" s="4"/>
-      <c r="M170" s="2" t="s">
+      <c r="M170" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N170" s="2" t="s">
@@ -11836,7 +11836,7 @@
         <v>486</v>
       </c>
       <c r="L173" s="4"/>
-      <c r="M173" s="2" t="s">
+      <c r="M173" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N173" s="2" t="s">
@@ -12002,7 +12002,7 @@
         <v>487</v>
       </c>
       <c r="L176" s="4"/>
-      <c r="M176" s="2" t="s">
+      <c r="M176" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N176" s="2" t="s">
@@ -12164,7 +12164,7 @@
         <v>488</v>
       </c>
       <c r="L179" s="4"/>
-      <c r="M179" s="2" t="s">
+      <c r="M179" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N179" s="2" t="s">
@@ -12422,7 +12422,7 @@
         <v>489</v>
       </c>
       <c r="L184" s="4"/>
-      <c r="M184" s="2" t="s">
+      <c r="M184" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N184" s="2" t="s">
@@ -12680,7 +12680,7 @@
         <v>490</v>
       </c>
       <c r="L189" s="4"/>
-      <c r="M189" s="2" t="s">
+      <c r="M189" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N189" s="2" t="s">
@@ -12936,7 +12936,7 @@
       </c>
       <c r="K194" s="2"/>
       <c r="L194" s="4"/>
-      <c r="M194" s="2" t="s">
+      <c r="M194" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N194" s="2" t="s">
@@ -13192,7 +13192,7 @@
         <v>491</v>
       </c>
       <c r="L199" s="4"/>
-      <c r="M199" s="2" t="s">
+      <c r="M199" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N199" s="2" t="s">
@@ -13462,7 +13462,7 @@
         <v>492</v>
       </c>
       <c r="L204" s="4"/>
-      <c r="M204" s="2" t="s">
+      <c r="M204" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N204" s="2" t="s">
@@ -13678,7 +13678,7 @@
         <v>493</v>
       </c>
       <c r="L208" s="4"/>
-      <c r="M208" s="2" t="s">
+      <c r="M208" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N208" s="2" t="s">
@@ -13894,7 +13894,7 @@
         <v>494</v>
       </c>
       <c r="L212" s="4"/>
-      <c r="M212" s="2" t="s">
+      <c r="M212" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N212" s="2" t="s">
@@ -14218,7 +14218,7 @@
         <v>490</v>
       </c>
       <c r="L218" s="4"/>
-      <c r="M218" s="2" t="s">
+      <c r="M218" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N218" s="2" t="s">
@@ -14488,7 +14488,7 @@
         <v>495</v>
       </c>
       <c r="L223" s="4"/>
-      <c r="M223" s="2" t="s">
+      <c r="M223" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N223" s="2" t="s">
@@ -14646,7 +14646,7 @@
         <v>496</v>
       </c>
       <c r="L226" s="4"/>
-      <c r="M226" s="2" t="s">
+      <c r="M226" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N226" s="2" t="s">
@@ -14950,7 +14950,7 @@
         <v>497</v>
       </c>
       <c r="L232" s="4"/>
-      <c r="M232" s="2" t="s">
+      <c r="M232" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N232" s="2" t="s">
@@ -15098,7 +15098,7 @@
       </c>
       <c r="K235" s="2"/>
       <c r="L235" s="4"/>
-      <c r="M235" s="2" t="s">
+      <c r="M235" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N235" s="2" t="s">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="K238" s="2"/>
       <c r="L238" s="4"/>
-      <c r="M238" s="2" t="s">
+      <c r="M238" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N238" s="2" t="s">
@@ -15402,7 +15402,7 @@
       </c>
       <c r="K241" s="2"/>
       <c r="L241" s="4"/>
-      <c r="M241" s="2" t="s">
+      <c r="M241" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N241" s="2" t="s">
@@ -15724,7 +15724,7 @@
         <v>498</v>
       </c>
       <c r="L247" s="4"/>
-      <c r="M247" s="2" t="s">
+      <c r="M247" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N247" s="2" t="s">
@@ -15872,7 +15872,7 @@
       </c>
       <c r="K250" s="2"/>
       <c r="L250" s="4"/>
-      <c r="M250" s="2" t="s">
+      <c r="M250" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N250" s="2" t="s">
@@ -16032,7 +16032,7 @@
         <v>477</v>
       </c>
       <c r="L253" s="4"/>
-      <c r="M253" s="2" t="s">
+      <c r="M253" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N253" s="2" t="s">
@@ -16180,7 +16180,7 @@
       </c>
       <c r="K256" s="2"/>
       <c r="L256" s="4"/>
-      <c r="M256" s="2" t="s">
+      <c r="M256" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N256" s="2" t="s">
@@ -16616,7 +16616,7 @@
       </c>
       <c r="K264" s="2"/>
       <c r="L264" s="4"/>
-      <c r="M264" s="2" t="s">
+      <c r="M264" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N264" s="2" t="s">
@@ -16772,7 +16772,7 @@
         <v>499</v>
       </c>
       <c r="L267" s="4"/>
-      <c r="M267" s="2" t="s">
+      <c r="M267" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N267" s="2" t="s">
@@ -17086,7 +17086,7 @@
       </c>
       <c r="K273" s="2"/>
       <c r="L273" s="4"/>
-      <c r="M273" s="2" t="s">
+      <c r="M273" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N273" s="2" t="s">
@@ -17246,7 +17246,7 @@
         <v>499</v>
       </c>
       <c r="L276" s="4"/>
-      <c r="M276" s="2" t="s">
+      <c r="M276" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N276" s="2" t="s">
@@ -17780,7 +17780,7 @@
       </c>
       <c r="K286" s="2"/>
       <c r="L286" s="4"/>
-      <c r="M286" s="2" t="s">
+      <c r="M286" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N286" s="2" t="s">
@@ -17940,7 +17940,7 @@
         <v>499</v>
       </c>
       <c r="L289" s="4"/>
-      <c r="M289" s="2" t="s">
+      <c r="M289" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N289" s="2" t="s">
@@ -18472,7 +18472,7 @@
         <v>499</v>
       </c>
       <c r="L299" s="4"/>
-      <c r="M299" s="2" t="s">
+      <c r="M299" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N299" s="2" t="s">
@@ -19004,7 +19004,7 @@
       </c>
       <c r="K309" s="2"/>
       <c r="L309" s="4"/>
-      <c r="M309" s="2" t="s">
+      <c r="M309" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N309" s="2"/>
